--- a/Data Visualization/Example.xlsx
+++ b/Data Visualization/Example.xlsx
@@ -1,43 +1,605 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="7700" windowHeight="8130"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Maximum of Column B</t>
+  </si>
+  <si>
+    <t>MAX(B2:B6)</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Minimum of Column B</t>
+  </si>
+  <si>
+    <t>MIN(B2:F6)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Average of Column B</t>
+  </si>
+  <si>
+    <t>AVERAGE(B2:B6)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Count for selected cells Column C and few E</t>
+  </si>
+  <si>
+    <t>COUNT(C2:C6,E2:E4)</t>
+  </si>
+  <si>
+    <t>Countif</t>
+  </si>
+  <si>
+    <t>Count for cells Column C with condition</t>
+  </si>
+  <si>
+    <t>COUNTIF(C2:C6,"&gt;7")</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Summation</t>
+  </si>
+  <si>
+    <t>Sum of values in Column B</t>
+  </si>
+  <si>
+    <t>SUM(B2:B6)</t>
+  </si>
+  <si>
+    <t>VLOOKUP(1,B2:F6,2,FALSE)</t>
+  </si>
+  <si>
+    <t>Substraction</t>
+  </si>
+  <si>
+    <t>Difference of Sum and Average of values in Column B</t>
+  </si>
+  <si>
+    <t>SUM(B2:B6)-AVERAGE(B2:B6)</t>
+  </si>
+  <si>
+    <t>MATCH(1,B2:B6)</t>
+  </si>
+  <si>
+    <t>Multiplication</t>
+  </si>
+  <si>
+    <t>Product of all values in Column B</t>
+  </si>
+  <si>
+    <t>PRODUCT(B2:B6)</t>
+  </si>
+  <si>
+    <t>INDEX(C2:C6,1)</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Average of Column B by Sum and Count of Column B</t>
+  </si>
+  <si>
+    <t>SUM(B2:B6)/COUNT(B2:B6)</t>
+  </si>
+  <si>
+    <t>INDEX(C2:C6,MATCH(1,B2:B6))</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 to the Power of 2 </t>
+  </si>
+  <si>
+    <t>POWER(2,3)</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Exponential value of 0</t>
+  </si>
+  <si>
+    <t>EXP(0)</t>
+  </si>
+  <si>
+    <t>Vlookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veritcal look up along the Column </t>
+  </si>
+  <si>
+    <t>VLOOKUP(B3,B2:F6,1,FALSE)</t>
+  </si>
+  <si>
+    <t>Hlookup</t>
+  </si>
+  <si>
+    <t>Horizontal look up along the Row</t>
+  </si>
+  <si>
+    <t>HLOOKUP(E2,B2:F6,3,FALSE)</t>
+  </si>
+  <si>
+    <t>Veritcal look up along the Column  by Index and Match</t>
+  </si>
+  <si>
+    <t>INDEX(B2:F6,MATCH(B2,B2:B6,0),2)</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Value at Index position of row,column within B2:F6 Array</t>
+  </si>
+  <si>
+    <t>INDEX(B2:F6,1,2)</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Index position of value in Column B</t>
+  </si>
+  <si>
+    <t>MATCH(B2,B2:B6,0)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -46,93 +608,523 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,152 +1407,436 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="H1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="7" max="7" width="4.09090909090909" customWidth="1"/>
+    <col min="8" max="8" width="12.7181818181818" customWidth="1"/>
+    <col min="9" max="9" width="48.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="7.54545454545455" customWidth="1"/>
+    <col min="11" max="11" width="30.3636363636364" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
+    <row r="1" ht="15.25" spans="2:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8">
+        <f>MAX(B2:B6)</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9">
+        <v>70</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8">
+        <f>MIN(B2:F6)</f>
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9">
+        <v>80</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="9">
+        <v>90</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8">
+        <f>COUNT(C2:C6,E2:E4)</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="1:11">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <v>55</v>
+      </c>
+      <c r="E6" s="11">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10">
+        <f>COUNTIF(C2:C6,"&gt;7")</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25"/>
+    <row r="8" ht="15.25" spans="2:11">
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="23">
+        <f>SUM(B2:B6)</f>
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUM(B2:B6)-AVERAGE(B2:B6)</f>
+        <v>12</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="7">
+        <f>PRODUCT(B2:B6)</f>
+        <v>120</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="9">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUM(B2:B6)/COUNT(B2:B6)</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="2:11">
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="12" cm="1">
+        <f t="array" ref="F12">INDEX(C2:C6,MATCH(1,B2:B6))</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="7">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="8:11">
+      <c r="H13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="13">
+        <f>EXP(0)</f>
         <v>1</v>
       </c>
+      <c r="K13" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="14" ht="15.25"/>
+    <row r="15" spans="8:11">
+      <c r="H15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="6">
+        <f>VLOOKUP(B3,B2:F6,1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="8:11">
+      <c r="H16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="9">
+        <f>HLOOKUP(E2,B2:F6,3,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="9" cm="1">
+        <f t="array" ref="J17">INDEX(B2:F6,MATCH(B2,B2:B6,0),2)</f>
+        <v>6</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="9">
+        <f>INDEX(B2:F6,1,2)</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="8:11">
+      <c r="H19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="12">
+        <f>MATCH(B2,B2:B6,0)</f>
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+      <c r="K19" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="4">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>